--- a/Double_Slit/week2-10-secondStatProof.xlsx
+++ b/Double_Slit/week2-10-secondStatProof.xlsx
@@ -196,21 +196,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.1425365005967478</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8696423446515946</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4358602855783618</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9442358437934799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1795517911651876</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -220,21 +205,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.9635770658195566</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2720974336969775</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8231196071694746</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5569067078591008</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1635772562047157</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -271,21 +241,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.1425365005967478</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8696423446515946</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4358602855783618</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9442358437934799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1795517911651876</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -295,21 +250,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0712682502983739</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9348211723257973</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7179301427891809</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.47211792189674</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0897758955825938</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -323,11 +263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321602888"/>
-        <c:axId val="319957304"/>
+        <c:axId val="228363336"/>
+        <c:axId val="228362160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321602888"/>
+        <c:axId val="228363336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,12 +324,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319957304"/>
+        <c:crossAx val="228362160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319957304"/>
+        <c:axId val="228362160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -446,7 +386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321602888"/>
+        <c:crossAx val="228363336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1381,15 +1321,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U2" activeCellId="1" sqref="M2:N6 U2:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1473,20 +1413,12 @@
         <f>SQRT(M2)</f>
         <v>117.83335690711692</v>
       </c>
-      <c r="Q2">
-        <f>LOG(M2)</f>
-        <v>4.1425365005967478</v>
-      </c>
-      <c r="R2">
-        <f>LOG(N2)</f>
-        <v>1.9635770658195566</v>
-      </c>
-      <c r="S2">
-        <f>LOG(P2)</f>
-        <v>2.0712682502983739</v>
+      <c r="U2">
+        <f>100*N2/M2</f>
+        <v>0.66227836084189196</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8</v>
       </c>
@@ -1532,20 +1464,12 @@
         <f t="shared" ref="P3:P6" si="2">SQRT(M3)</f>
         <v>86.063929726686311</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q6" si="3">LOG(M3)</f>
-        <v>3.8696423446515946</v>
-      </c>
-      <c r="R3">
-        <f>LOG(N3)</f>
-        <v>2.2720974336969775</v>
-      </c>
-      <c r="S3">
-        <f>LOG(P3)</f>
-        <v>1.9348211723257973</v>
+      <c r="U3">
+        <f t="shared" ref="U3:U6" si="3">100*N3/M3</f>
+        <v>2.5261264666160934</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1591,20 +1515,12 @@
         <f t="shared" si="2"/>
         <v>52.231216719505966</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <f t="shared" si="3"/>
-        <v>3.4358602855783618</v>
-      </c>
-      <c r="R4">
-        <f>LOG(N4)</f>
-        <v>1.8231196071694746</v>
-      </c>
-      <c r="S4">
-        <f>LOG(P4)</f>
-        <v>1.7179301427891809</v>
+        <v>2.4392668943351317</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1650,20 +1566,12 @@
         <f t="shared" si="2"/>
         <v>29.656365252673833</v>
       </c>
-      <c r="Q5">
+      <c r="U5">
         <f t="shared" si="3"/>
-        <v>2.9442358437934799</v>
-      </c>
-      <c r="R5">
-        <f>LOG(N5)</f>
-        <v>1.5569067078591008</v>
-      </c>
-      <c r="S5">
-        <f>LOG(P5)</f>
-        <v>1.47211792189674</v>
+        <v>4.0989334204307655</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1709,17 +1617,9 @@
         <f t="shared" si="2"/>
         <v>12.296340919151518</v>
       </c>
-      <c r="Q6">
+      <c r="U6">
         <f t="shared" si="3"/>
-        <v>2.1795517911651876</v>
-      </c>
-      <c r="R6">
-        <f>LOG(N6)</f>
-        <v>1.1635772562047157</v>
-      </c>
-      <c r="S6">
-        <f>LOG(P6)</f>
-        <v>1.0897758955825938</v>
+        <v>9.6388553980088236</v>
       </c>
     </row>
   </sheetData>

--- a/Double_Slit/week2-10-secondStatProof.xlsx
+++ b/Double_Slit/week2-10-secondStatProof.xlsx
@@ -263,11 +263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="228363336"/>
-        <c:axId val="228362160"/>
+        <c:axId val="223507376"/>
+        <c:axId val="223507768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228363336"/>
+        <c:axId val="223507376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -324,12 +324,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228362160"/>
+        <c:crossAx val="223507768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228362160"/>
+        <c:axId val="223507768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,7 +386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228363336"/>
+        <c:crossAx val="223507376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1321,15 +1321,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U2" activeCellId="1" sqref="M2:N6 U2:U6"/>
+      <selection activeCell="M2" sqref="M2:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1409,16 +1409,16 @@
         <f>STDEV(B2:K2)</f>
         <v>91.955363567814189</v>
       </c>
+      <c r="O2">
+        <f>100*N2/M2</f>
+        <v>0.66227836084189196</v>
+      </c>
       <c r="P2">
         <f>SQRT(M2)</f>
         <v>117.83335690711692</v>
       </c>
-      <c r="U2">
-        <f>100*N2/M2</f>
-        <v>0.66227836084189196</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8</v>
       </c>
@@ -1460,16 +1460,16 @@
         <f t="shared" ref="N3:N6" si="1">STDEV(B3:K3)</f>
         <v>187.11018738225405</v>
       </c>
+      <c r="O3">
+        <f>100*N3/M3</f>
+        <v>2.5261264666160934</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P6" si="2">SQRT(M3)</f>
         <v>86.063929726686311</v>
       </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U6" si="3">100*N3/M3</f>
-        <v>2.5261264666160934</v>
-      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1511,16 +1511,16 @@
         <f t="shared" si="1"/>
         <v>66.545640144356724</v>
       </c>
+      <c r="O4">
+        <f>100*N4/M4</f>
+        <v>2.4392668943351317</v>
+      </c>
       <c r="P4">
         <f t="shared" si="2"/>
         <v>52.231216719505966</v>
       </c>
-      <c r="U4">
-        <f t="shared" si="3"/>
-        <v>2.4392668943351317</v>
-      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1562,16 +1562,16 @@
         <f t="shared" si="1"/>
         <v>36.050119432688582</v>
       </c>
+      <c r="O5">
+        <f>100*N5/M5</f>
+        <v>4.0989334204307655</v>
+      </c>
       <c r="P5">
         <f t="shared" si="2"/>
         <v>29.656365252673833</v>
       </c>
-      <c r="U5">
-        <f t="shared" si="3"/>
-        <v>4.0989334204307655</v>
-      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1613,13 +1613,13 @@
         <f t="shared" si="1"/>
         <v>14.573949361789342</v>
       </c>
+      <c r="O6">
+        <f>100*N6/M6</f>
+        <v>9.6388553980088236</v>
+      </c>
       <c r="P6">
         <f t="shared" si="2"/>
         <v>12.296340919151518</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="3"/>
-        <v>9.6388553980088236</v>
       </c>
     </row>
   </sheetData>
